--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s4_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s4_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1864.531865622396</v>
+        <v>1109.584661747115</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.93747077693889</v>
+        <v>15.18434516685256</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.7567411021336</v>
+        <v>13.79641161677296</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1630.140000000007</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.6</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -631,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -642,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -653,7 +653,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -664,7 +664,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1002,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1068,7 +1068,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1096,7 +1096,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1104,13 +1104,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1124,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1132,13 +1132,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1146,13 +1146,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1160,71 +1160,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1327,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>103.9450000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1338,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>99.87500000000007</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1349,7 +1293,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>98.50500000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1360,7 +1304,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>97.73000000000008</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1371,7 +1315,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>89.70500000000007</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1382,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>236.55</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
@@ -1393,7 +1337,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>236.0700000000014</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -1404,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>245.2900000000015</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
@@ -1415,7 +1359,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>240.85</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
@@ -1426,7 +1370,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>223.4700000000015</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
@@ -1437,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>156.0400000000008</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -1448,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>153.1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
@@ -1459,7 +1403,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>150.6550000000008</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
@@ -1470,7 +1414,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>147.3750000000008</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -1481,7 +1425,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>138.2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
@@ -1492,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>119.3649999999998</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -1503,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>131.3249999999998</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
@@ -1514,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>122.1899999999998</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -1525,7 +1469,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>129.5699999999998</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -1536,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>130.3899999999998</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -1547,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.8949999999997</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1558,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1569,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1580,7 +1524,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68499999999971</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1591,7 +1535,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1602,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>119.3649999999998</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
@@ -1613,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>131.3249999999998</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34">
@@ -1624,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>122.1899999999998</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
@@ -1635,7 +1579,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>129.5699999999998</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
@@ -1646,7 +1590,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>130.3899999999998</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
@@ -1657,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>236.55</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38">
@@ -1668,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>236.0700000000014</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39">
@@ -1679,7 +1623,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>245.2900000000015</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40">
@@ -1690,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>240.85</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41">
@@ -1701,7 +1645,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>223.4700000000015</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1748,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>19.36499999999977</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1759,7 +1703,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>31.32499999999979</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1770,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>22.18999999999978</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1781,7 +1725,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>29.5699999999998</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1792,7 +1736,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>30.38999999999979</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -1803,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>136.55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1814,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>136.0700000000014</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -1825,7 +1769,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>145.2900000000015</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1836,7 +1780,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>140.85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -1847,7 +1791,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>123.4700000000015</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1894,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1905,7 +1849,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1916,7 +1860,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1927,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1938,7 +1882,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2004,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -2015,7 +1959,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.175</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -2026,7 +1970,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.855</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2037,7 +1981,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.215</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2048,7 +1992,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.485</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2059,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2070,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2081,7 +2025,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2036,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2103,7 +2047,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2114,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2125,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2136,7 +2080,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2147,7 +2091,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2158,7 +2102,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2172,7 +2116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2199,7 +2143,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2213,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2224,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2235,7 +2179,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2246,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2254,10 +2198,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2268,7 +2212,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2276,10 +2220,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2287,10 +2231,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2298,10 +2242,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2309,10 +2253,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2323,53 +2267,9 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
         <v>1</v>
       </c>
     </row>
